--- a/inst/extdata/Rules.xlsx
+++ b/inst/extdata/Rules.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{C0457C21-1A7C-4176-8A87-E5509099A27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66C05E70-B90C-4A25-BBCA-66E1B9E3A3DC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="8" r:id="rId1"/>
@@ -4809,7 +4809,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D1087" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1096" sqref="N1096"/>
+      <selection pane="bottomRight" activeCell="D1094" sqref="D1093:D1094"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
